--- a/biology/Botanique/Fosterella/Fosterella.xlsx
+++ b/biology/Botanique/Fosterella/Fosterella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fosterella est un genre de plantes de la famille des Bromeliaceae dont les espèces se rencontrent dans le Nord de l'Argentine, en Bolivie, dans le Sud du Mexique, au Paraguay et au Pérou.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre porte le nom de Mulford B. Foster (1888-1978), un horticulteur et collectionneur américain.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fosterella albicans (Grisebach) L.B. Smith
